--- a/data/trans_orig/P29-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P29-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>362657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332995</v>
+        <v>335759</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393886</v>
+        <v>394298</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3515063942082658</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3227563165204064</v>
+        <v>0.3254356962540033</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3817748038575431</v>
+        <v>0.3821746213449653</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>903</v>
@@ -765,19 +765,19 @@
         <v>926555</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>890392</v>
+        <v>896781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>955555</v>
+        <v>960563</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7045441896661288</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6770461086690694</v>
+        <v>0.6819042689231117</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7265950876740156</v>
+        <v>0.7304033400721924</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1267</v>
@@ -786,19 +786,19 @@
         <v>1289212</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1239972</v>
+        <v>1247061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1333611</v>
+        <v>1334283</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5493406565282396</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5283593664687565</v>
+        <v>0.5313797376469745</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5682594362721345</v>
+        <v>0.5685455700295965</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>198073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>172817</v>
+        <v>173516</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>222296</v>
+        <v>223573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1919822977775345</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1675029609503337</v>
+        <v>0.1681810672618207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2154610780999647</v>
+        <v>0.216698599492411</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>223</v>
@@ -836,19 +836,19 @@
         <v>221023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195305</v>
+        <v>194094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>248807</v>
+        <v>248007</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.16806368704306</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1485084916415188</v>
+        <v>0.1475875410187973</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1891905634854129</v>
+        <v>0.1885822319673126</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>424</v>
@@ -857,19 +857,19 @@
         <v>419095</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>383645</v>
+        <v>385849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>459677</v>
+        <v>454047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1785788583405857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1634735553410292</v>
+        <v>0.1644123814764987</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1958709951064868</v>
+        <v>0.1934721028990403</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>470993</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>439644</v>
+        <v>440112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>503050</v>
+        <v>504784</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4565113080141997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4261262421302422</v>
+        <v>0.4265793277713915</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4875821485441716</v>
+        <v>0.4892628204339537</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -907,19 +907,19 @@
         <v>167535</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>144919</v>
+        <v>144500</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>193627</v>
+        <v>191025</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1273921232908112</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1101947891919322</v>
+        <v>0.1098767504978125</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1472322620865815</v>
+        <v>0.145253641556564</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>638</v>
@@ -928,19 +928,19 @@
         <v>638528</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>597788</v>
+        <v>597962</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>684834</v>
+        <v>677394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2720804851311746</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2547210804774669</v>
+        <v>0.2547952046752232</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2918115729509272</v>
+        <v>0.2886414811753374</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>380859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>344868</v>
+        <v>346147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417138</v>
+        <v>416539</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2249060632706067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2036524213442927</v>
+        <v>0.2044078270132499</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2463297010240132</v>
+        <v>0.2459762498814813</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>645</v>
@@ -1053,19 +1053,19 @@
         <v>674511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>633965</v>
+        <v>633900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>712945</v>
+        <v>711591</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4248423068009715</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3993043141605288</v>
+        <v>0.3992637167386581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4490504827296131</v>
+        <v>0.4481972178562156</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1007</v>
@@ -1074,19 +1074,19 @@
         <v>1055370</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>997371</v>
+        <v>1002328</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1108892</v>
+        <v>1111252</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3216525136268399</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3039759679705847</v>
+        <v>0.3054867215138325</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3379650328715116</v>
+        <v>0.3386843035752696</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>253150</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>224978</v>
+        <v>223312</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>283118</v>
+        <v>281924</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.149490805404318</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1328547944080848</v>
+        <v>0.1318709491290923</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1671879258880479</v>
+        <v>0.1664825776993096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>385</v>
@@ -1124,19 +1124,19 @@
         <v>379309</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>345508</v>
+        <v>346169</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>412522</v>
+        <v>415064</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2389086009399322</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2176193862628872</v>
+        <v>0.2180355035192203</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2598282854894564</v>
+        <v>0.2614292462357578</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>637</v>
@@ -1145,19 +1145,19 @@
         <v>632458</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>589818</v>
+        <v>590823</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>680097</v>
+        <v>677939</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.192758870083328</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1797630229222403</v>
+        <v>0.1800694194242036</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2072780668609047</v>
+        <v>0.2066202883660825</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>1059404</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1017243</v>
+        <v>1017148</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1098085</v>
+        <v>1098901</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6256031313250753</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.600705677616605</v>
+        <v>0.6006496934762766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6484450808250037</v>
+        <v>0.6489270477043677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>524</v>
@@ -1195,19 +1195,19 @@
         <v>533854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>495346</v>
+        <v>496196</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>572971</v>
+        <v>571953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3362490922590963</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3119948942851851</v>
+        <v>0.3125304670539409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3608871601408831</v>
+        <v>0.3602458550949445</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1559</v>
@@ -1216,19 +1216,19 @@
         <v>1593258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1537839</v>
+        <v>1531208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1656051</v>
+        <v>1651444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4855886162898321</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4686980968030438</v>
+        <v>0.4666773278344226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5047264304495312</v>
+        <v>0.5033224364137407</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>110036</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90362</v>
+        <v>89851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134084</v>
+        <v>129469</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1995545011618114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1638742824969995</v>
+        <v>0.162948411566488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2431674417312365</v>
+        <v>0.2347972753293409</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>172</v>
@@ -1341,19 +1341,19 @@
         <v>185897</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>163383</v>
+        <v>166778</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>208191</v>
+        <v>209909</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3902012151007899</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3429445410186455</v>
+        <v>0.35007066858172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4369983987786719</v>
+        <v>0.4406040051346597</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>273</v>
@@ -1362,19 +1362,19 @@
         <v>295932</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>265863</v>
+        <v>267859</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>326022</v>
+        <v>327085</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2879224554772263</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2586666249478177</v>
+        <v>0.2606089050120077</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3171972108929582</v>
+        <v>0.318232117614373</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>90865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72608</v>
+        <v>75403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111677</v>
+        <v>111509</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1647878409453096</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1316775329416347</v>
+        <v>0.1367463132535139</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2025309010210536</v>
+        <v>0.2022264592429878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -1412,19 +1412,19 @@
         <v>96383</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80099</v>
+        <v>80414</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116551</v>
+        <v>116074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2023108781484934</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1681299293196585</v>
+        <v>0.1687910651042725</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2446440092427357</v>
+        <v>0.2436415127844161</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>182</v>
@@ -1433,19 +1433,19 @@
         <v>187249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161386</v>
+        <v>164344</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>213885</v>
+        <v>215527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1821803989854544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1570175388648403</v>
+        <v>0.1598960275340321</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2080960478846234</v>
+        <v>0.2096937922446605</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>350507</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>326760</v>
+        <v>326288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374933</v>
+        <v>373110</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.635657657892879</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5925914303759297</v>
+        <v>0.591735231663824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.679955880324747</v>
+        <v>0.6766497800281848</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -1483,19 +1483,19 @@
         <v>194132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172806</v>
+        <v>171581</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>214149</v>
+        <v>215197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4074879067507167</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3627242742943044</v>
+        <v>0.3601515089801295</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4495047892210444</v>
+        <v>0.4517033274920172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>524</v>
@@ -1504,19 +1504,19 @@
         <v>544639</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>515156</v>
+        <v>513049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>577133</v>
+        <v>580285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5298971455373193</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5012126400105933</v>
+        <v>0.4991624784661475</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5615121700586535</v>
+        <v>0.5645786306273617</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>853552</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>799159</v>
+        <v>808020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>904543</v>
+        <v>906590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2605037613168781</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2439030758347922</v>
+        <v>0.2466074205422118</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2760663454046912</v>
+        <v>0.2766908915165671</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1720</v>
@@ -1629,19 +1629,19 @@
         <v>1786962</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1731811</v>
+        <v>1726457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1843334</v>
+        <v>1852439</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5288125771850047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5124917965319051</v>
+        <v>0.5109073783996453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5454948026145258</v>
+        <v>0.5481890211557454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2547</v>
@@ -1650,19 +1650,19 @@
         <v>2640514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2559893</v>
+        <v>2565161</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2719851</v>
+        <v>2726454</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3967272830643235</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3846142264994757</v>
+        <v>0.3854057969941816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.408647290168641</v>
+        <v>0.4096393979384069</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>542087</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497644</v>
+        <v>500794</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>580142</v>
+        <v>581413</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1654449205693351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1518807656139675</v>
+        <v>0.152842054777483</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1770593076817596</v>
+        <v>0.1774470793055561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>702</v>
@@ -1700,19 +1700,19 @@
         <v>696715</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>647880</v>
+        <v>650464</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>744642</v>
+        <v>747055</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2061775671834648</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1917261656024719</v>
+        <v>0.192490803600443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2203606124891862</v>
+        <v>0.221074846026584</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1243</v>
@@ -1721,19 +1721,19 @@
         <v>1238802</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1177042</v>
+        <v>1180647</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1299598</v>
+        <v>1307060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1861253613290532</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1768460540548669</v>
+        <v>0.1773877369785094</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1952596612260772</v>
+        <v>0.1963807966733827</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>1880904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5740513181137867</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>875</v>
@@ -1771,19 +1771,19 @@
         <v>895521</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2650098556315305</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2721</v>
@@ -1792,19 +1792,19 @@
         <v>2776425</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4171473556066232</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>355086</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>326507</v>
+        <v>323575</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>389521</v>
+        <v>386907</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3643238593121328</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3350011683233428</v>
+        <v>0.3319931689678814</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3996549915631732</v>
+        <v>0.3969732915557907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>903</v>
@@ -2156,19 +2156,19 @@
         <v>971944</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>934795</v>
+        <v>938380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>1002159</v>
+        <v>1006594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.727051428449435</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6992626457584872</v>
+        <v>0.701944363011654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7496530789117627</v>
+        <v>0.7529710140725867</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1228</v>
@@ -2177,19 +2177,19 @@
         <v>1327030</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1277894</v>
+        <v>1273244</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1374314</v>
+        <v>1373518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5741057109694127</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5528485407631248</v>
+        <v>0.5508367903144969</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5945619003960434</v>
+        <v>0.5942176510217561</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>107939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89057</v>
+        <v>90378</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125388</v>
+        <v>129929</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1107472931041307</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09137361570721796</v>
+        <v>0.09272974183382732</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.128649719199587</v>
+        <v>0.1333092713505729</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -2227,19 +2227,19 @@
         <v>133639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112464</v>
+        <v>111620</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>157021</v>
+        <v>157301</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09996738137486438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08412754753469169</v>
+        <v>0.08349623213777979</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1174580092340452</v>
+        <v>0.1176672172435796</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>233</v>
@@ -2248,19 +2248,19 @@
         <v>241578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>213427</v>
+        <v>214061</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>270017</v>
+        <v>275687</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1045127798338932</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09233363499889218</v>
+        <v>0.09260793508410781</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1168159907785049</v>
+        <v>0.1192688441616126</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>511618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>481198</v>
+        <v>480470</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>544815</v>
+        <v>544628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5249288475837364</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4937175526363022</v>
+        <v>0.4929699926602336</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5589896068924101</v>
+        <v>0.5587972875648973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>214</v>
@@ -2298,19 +2298,19 @@
         <v>231246</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>205778</v>
+        <v>206532</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>261294</v>
+        <v>262911</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1729811901757005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1539297299296022</v>
+        <v>0.1544936710925973</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1954576213098791</v>
+        <v>0.1966677258145582</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>693</v>
@@ -2319,19 +2319,19 @@
         <v>742865</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>696324</v>
+        <v>696625</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>789445</v>
+        <v>787082</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3213815091966942</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3012469700926707</v>
+        <v>0.3013771118424617</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3415332378715881</v>
+        <v>0.3405110398906303</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>501653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465782</v>
+        <v>458190</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545870</v>
+        <v>541803</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2554295997820544</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2371648237999713</v>
+        <v>0.2332993526346369</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2779437576529811</v>
+        <v>0.2758730287784246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>823</v>
@@ -2444,19 +2444,19 @@
         <v>883062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>840790</v>
+        <v>838666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>927081</v>
+        <v>927120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5023667742114662</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4783188387507063</v>
+        <v>0.477110109107019</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5274089218561442</v>
+        <v>0.5274311768795453</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1296</v>
@@ -2465,19 +2465,19 @@
         <v>1384714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1319629</v>
+        <v>1327043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1442451</v>
+        <v>1446759</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3720590477455782</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3545711860090375</v>
+        <v>0.3565632683504725</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3875723656244777</v>
+        <v>0.3887299202611972</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>261213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>230719</v>
+        <v>231151</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>295325</v>
+        <v>293866</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1330035099082184</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.117476774629293</v>
+        <v>0.1176965796658214</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.150372208889854</v>
+        <v>0.1496295073453426</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>260</v>
@@ -2515,19 +2515,19 @@
         <v>276657</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>243931</v>
+        <v>247172</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>307159</v>
+        <v>310775</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1573879614285396</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1387706537740379</v>
+        <v>0.1406139679726425</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1747401593790438</v>
+        <v>0.1767971816569282</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>510</v>
@@ -2536,19 +2536,19 @@
         <v>537870</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>496426</v>
+        <v>496640</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>585623</v>
+        <v>584584</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1445203871312601</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.133384673717605</v>
+        <v>0.1334421250494422</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.157351201809536</v>
+        <v>0.1570720225929181</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>1201091</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1155972</v>
+        <v>1155291</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1243099</v>
+        <v>1243023</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6115668903097272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5885935177284324</v>
+        <v>0.5882465613959427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6329565551118815</v>
+        <v>0.6329175238786559</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>552</v>
@@ -2586,19 +2586,19 @@
         <v>598084</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>557214</v>
+        <v>559887</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>640728</v>
+        <v>643224</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3402452643599941</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3169944508983486</v>
+        <v>0.3185152413387657</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3645051689561847</v>
+        <v>0.3659250465969262</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1685</v>
@@ -2607,19 +2607,19 @@
         <v>1799175</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1740226</v>
+        <v>1742748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1866558</v>
+        <v>1864813</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4834205651231617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.46758149797776</v>
+        <v>0.4682591268947082</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5015256853116244</v>
+        <v>0.5010568028175882</v>
       </c>
     </row>
     <row r="11">
@@ -2711,19 +2711,19 @@
         <v>85649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69099</v>
+        <v>70902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106500</v>
+        <v>107804</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1779969485521228</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1436038705538774</v>
+        <v>0.147349166425195</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2213307499239475</v>
+        <v>0.2240412228066059</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -2732,19 +2732,19 @@
         <v>166535</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>145517</v>
+        <v>144089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>190088</v>
+        <v>188514</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3639085474684985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3179802267215381</v>
+        <v>0.3148589920210829</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4153752940453669</v>
+        <v>0.4119353178853907</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>221</v>
@@ -2753,19 +2753,19 @@
         <v>252184</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226154</v>
+        <v>224257</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283203</v>
+        <v>283263</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2686207587046162</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2408940919414638</v>
+        <v>0.2388734502303514</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3016613313965761</v>
+        <v>0.3017255892717615</v>
       </c>
     </row>
     <row r="13">
@@ -2782,19 +2782,19 @@
         <v>69337</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53385</v>
+        <v>53811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88946</v>
+        <v>86441</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1440974295753341</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1109447522310625</v>
+        <v>0.1118316597690593</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1848502899141034</v>
+        <v>0.1796431188572626</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>61</v>
@@ -2803,19 +2803,19 @@
         <v>66487</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49584</v>
+        <v>52321</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81112</v>
+        <v>83392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1452860779359737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1083508279964247</v>
+        <v>0.1143304919448124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1772441564038241</v>
+        <v>0.1822264963291979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -2824,19 +2824,19 @@
         <v>135824</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>115591</v>
+        <v>114333</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163510</v>
+        <v>158199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.144676843899134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1231244815774001</v>
+        <v>0.1217845924737138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1741672410722862</v>
+        <v>0.1685095589174277</v>
       </c>
     </row>
     <row r="14">
@@ -2853,19 +2853,19 @@
         <v>326195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>302036</v>
+        <v>303918</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>346917</v>
+        <v>346618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6779056218725431</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6276976041668145</v>
+        <v>0.6316082434562674</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7209697391623393</v>
+        <v>0.7203484836859796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -2874,19 +2874,19 @@
         <v>224607</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202763</v>
+        <v>201676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>247191</v>
+        <v>248292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4908053745955277</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4430720915523961</v>
+        <v>0.4406982709020421</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.540155121624755</v>
+        <v>0.5425613985851854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>507</v>
@@ -2895,19 +2895,19 @@
         <v>550803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>521009</v>
+        <v>517426</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>584060</v>
+        <v>582228</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5867023973962499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5549671855733352</v>
+        <v>0.5511500496553595</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6221275029811499</v>
+        <v>0.6201754627438093</v>
       </c>
     </row>
     <row r="15">
@@ -2999,19 +2999,19 @@
         <v>942387</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>888209</v>
+        <v>889680</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>993305</v>
+        <v>995558</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2755694442428936</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2597268088237653</v>
+        <v>0.260156869371284</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2904585881753823</v>
+        <v>0.2911173212599191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1874</v>
@@ -3020,19 +3020,19 @@
         <v>2021541</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1964176</v>
+        <v>1961545</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2087949</v>
+        <v>2083761</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5690855622904895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5529366112942988</v>
+        <v>0.5521960962231615</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5877801189509345</v>
+        <v>0.586601100452973</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2745</v>
@@ -3041,19 +3041,19 @@
         <v>2963928</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2872364</v>
+        <v>2881704</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3045539</v>
+        <v>3043813</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4251161450124734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4119830130386972</v>
+        <v>0.4133226514616327</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4368215000140678</v>
+        <v>0.4365739693522433</v>
       </c>
     </row>
     <row r="17">
@@ -3070,19 +3070,19 @@
         <v>438489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>400235</v>
+        <v>398779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>480336</v>
+        <v>478846</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282214277006247</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1170352780711085</v>
+        <v>0.1166094459315622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1404579877226489</v>
+        <v>0.1400222516967865</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>450</v>
@@ -3091,19 +3091,19 @@
         <v>476784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>435456</v>
+        <v>437112</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>518538</v>
+        <v>521143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1342197017689226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1225856707894156</v>
+        <v>0.1230518102001244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1459741078582169</v>
+        <v>0.1467074578572346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>864</v>
@@ -3112,19 +3112,19 @@
         <v>915273</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>854705</v>
+        <v>856991</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>976546</v>
+        <v>972304</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.131277553214932</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1225903610530129</v>
+        <v>0.1229181735197303</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1400660196917146</v>
+        <v>0.1394575850385681</v>
       </c>
     </row>
     <row r="18">
@@ -3141,19 +3141,19 @@
         <v>2038905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1977930</v>
+        <v>1977958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2097951</v>
+        <v>2098712</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5962091280564817</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5783789553167499</v>
+        <v>0.5783870672586865</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6134750923256505</v>
+        <v>0.6136977252025656</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>968</v>
@@ -3162,19 +3162,19 @@
         <v>1053937</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>998974</v>
+        <v>998482</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1111113</v>
+        <v>1111873</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2966947359405879</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2812220363249905</v>
+        <v>0.281083399309313</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3127902460869831</v>
+        <v>0.3130041037327598</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2885</v>
@@ -3183,19 +3183,19 @@
         <v>3092843</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3009083</v>
+        <v>3009798</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3183319</v>
+        <v>3173513</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4436063017725947</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4315927216353673</v>
+        <v>0.4316952212751896</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.45658326361351</v>
+        <v>0.4551768670947592</v>
       </c>
     </row>
     <row r="19">
@@ -3526,19 +3526,19 @@
         <v>115450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97691</v>
+        <v>96790</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>136567</v>
+        <v>136049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1532421015105722</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1296696099340489</v>
+        <v>0.1284741016917551</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1812719890251362</v>
+        <v>0.1805844544745792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>450</v>
@@ -3547,19 +3547,19 @@
         <v>515584</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>483477</v>
+        <v>479150</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>546955</v>
+        <v>545674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5206607309062549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4882377601912862</v>
+        <v>0.4838679493922426</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5523398727777965</v>
+        <v>0.5510470496623261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>562</v>
@@ -3568,19 +3568,19 @@
         <v>631034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>589962</v>
+        <v>589953</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>675609</v>
+        <v>673472</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3619076918655247</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3383519974195875</v>
+        <v>0.3383472003324819</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3874718410346337</v>
+        <v>0.3862462686853514</v>
       </c>
     </row>
     <row r="5">
@@ -3597,19 +3597,19 @@
         <v>278021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>254196</v>
+        <v>253090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305509</v>
+        <v>304139</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3690300194666714</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.33740547768023</v>
+        <v>0.3359380641846584</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4055157379841891</v>
+        <v>0.4036973114325819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>309</v>
@@ -3618,19 +3618,19 @@
         <v>337129</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306771</v>
+        <v>309662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>370223</v>
+        <v>372427</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3404480950952271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3097910985470309</v>
+        <v>0.3127107198754766</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3738678825750535</v>
+        <v>0.3760937103985346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>599</v>
@@ -3639,19 +3639,19 @@
         <v>615150</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576306</v>
+        <v>576432</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>656940</v>
+        <v>654855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3527976794455421</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.330520058038673</v>
+        <v>0.3305922358776618</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3767651172249708</v>
+        <v>0.3755692443640324</v>
       </c>
     </row>
     <row r="6">
@@ -3668,19 +3668,19 @@
         <v>359912</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>332983</v>
+        <v>330850</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>387768</v>
+        <v>385492</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4777278790227564</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4419835796682633</v>
+        <v>0.4391521055626673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.514702200495718</v>
+        <v>0.5116813255763506</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>129</v>
@@ -3689,19 +3689,19 @@
         <v>137537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>116107</v>
+        <v>118146</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158545</v>
+        <v>161525</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1388911739985179</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1172499115092913</v>
+        <v>0.119309068044132</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1601057432641486</v>
+        <v>0.1631149750081931</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>488</v>
@@ -3710,19 +3710,19 @@
         <v>497449</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>460412</v>
+        <v>459644</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>537308</v>
+        <v>535460</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2852946286889332</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.26405353615362</v>
+        <v>0.2636127234562324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3081543791636533</v>
+        <v>0.3070942850728793</v>
       </c>
     </row>
     <row r="7">
@@ -3814,19 +3814,19 @@
         <v>272997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>241480</v>
+        <v>245236</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>305875</v>
+        <v>307912</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1315464023617954</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1163597913910914</v>
+        <v>0.1181694703372658</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1473891992284409</v>
+        <v>0.1483705108169308</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>487</v>
@@ -3835,19 +3835,19 @@
         <v>516766</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479590</v>
+        <v>478808</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>555084</v>
+        <v>558098</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2599034010001099</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2412059006824362</v>
+        <v>0.2408128051309618</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2791751276996515</v>
+        <v>0.2806910600748055</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>736</v>
@@ -3856,19 +3856,19 @@
         <v>789763</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>739092</v>
+        <v>736981</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>840277</v>
+        <v>838998</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1943510178807508</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1818816046526139</v>
+        <v>0.1813619439226949</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2067820175617213</v>
+        <v>0.2064670895621375</v>
       </c>
     </row>
     <row r="9">
@@ -3885,19 +3885,19 @@
         <v>545075</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>509948</v>
+        <v>502733</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>586015</v>
+        <v>587107</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2626501890376705</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2457234920406656</v>
+        <v>0.2422469204657212</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2823772406908199</v>
+        <v>0.2829038006865086</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>718</v>
@@ -3906,19 +3906,19 @@
         <v>741957</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>699180</v>
+        <v>702868</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>788634</v>
+        <v>789175</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3731612595251326</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3516471876541463</v>
+        <v>0.3535019864460652</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3966373518054523</v>
+        <v>0.3969093426347139</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1236</v>
@@ -3927,19 +3927,19 @@
         <v>1287032</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1230638</v>
+        <v>1224819</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1348618</v>
+        <v>1345570</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3167228564121277</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3028450903208403</v>
+        <v>0.3014129804833898</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3318783615885102</v>
+        <v>0.3311283089863426</v>
       </c>
     </row>
     <row r="10">
@@ -3956,19 +3956,19 @@
         <v>1257218</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1213636</v>
+        <v>1210930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1300320</v>
+        <v>1305708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6058034086005341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5848029382917809</v>
+        <v>0.5834989629257472</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6265725383652716</v>
+        <v>0.6291687516234077</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>703</v>
@@ -3977,19 +3977,19 @@
         <v>729578</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>688257</v>
+        <v>682874</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>773406</v>
+        <v>773569</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3669353394747575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3461533750499389</v>
+        <v>0.3434460425783147</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3889786669660518</v>
+        <v>0.3890605170682945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1887</v>
@@ -3998,19 +3998,19 @@
         <v>1986795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1917105</v>
+        <v>1921827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2049439</v>
+        <v>2049902</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4889261257071215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4717762687217923</v>
+        <v>0.4729381755668224</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5043420279935977</v>
+        <v>0.504456025181011</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>43061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29168</v>
+        <v>30384</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57908</v>
+        <v>57106</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07873826787219576</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05333509462590211</v>
+        <v>0.05555748630501753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1058865742409018</v>
+        <v>0.1044196914586004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>82</v>
@@ -4123,19 +4123,19 @@
         <v>85175</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68878</v>
+        <v>69862</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103405</v>
+        <v>101713</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1557069320530844</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1259140373902351</v>
+        <v>0.1277133117290645</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1890315263652139</v>
+        <v>0.1859391550453583</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>120</v>
@@ -4144,19 +4144,19 @@
         <v>128236</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106860</v>
+        <v>108640</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150076</v>
+        <v>150419</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1172273943051371</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09768631956957881</v>
+        <v>0.09931317455807907</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1371922776922127</v>
+        <v>0.1375055250666216</v>
       </c>
     </row>
     <row r="13">
@@ -4173,19 +4173,19 @@
         <v>124405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105139</v>
+        <v>106745</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145736</v>
+        <v>144851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2274787584643997</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1922503145642861</v>
+        <v>0.1951872536976434</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2664830424062681</v>
+        <v>0.2648659421376664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>174</v>
@@ -4194,19 +4194,19 @@
         <v>177872</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154828</v>
+        <v>155527</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201395</v>
+        <v>202345</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3251643493356455</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.283037380839479</v>
+        <v>0.2843156103466445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3681650453353441</v>
+        <v>0.3699026955634916</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>291</v>
@@ -4215,19 +4215,19 @@
         <v>302277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>270435</v>
+        <v>271080</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>331519</v>
+        <v>332819</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2763276386903025</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2472191481961322</v>
+        <v>0.2478088333291862</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3030586315783951</v>
+        <v>0.3042477310063147</v>
       </c>
     </row>
     <row r="14">
@@ -4244,19 +4244,19 @@
         <v>379420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>356663</v>
+        <v>357480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>401907</v>
+        <v>400335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6937829736634046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6521711655608402</v>
+        <v>0.6536652138375397</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7349001241213299</v>
+        <v>0.7320258827064103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>268</v>
@@ -4265,19 +4265,19 @@
         <v>283975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259278</v>
+        <v>261047</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>309265</v>
+        <v>307853</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5191287186112701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4739798246756239</v>
+        <v>0.4772137247655635</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5653599291914202</v>
+        <v>0.5627787617029968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>614</v>
@@ -4286,19 +4286,19 @@
         <v>663396</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>631019</v>
+        <v>631063</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>697763</v>
+        <v>696285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6064449670045603</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5768475425007386</v>
+        <v>0.5768882127414156</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6378618268857211</v>
+        <v>0.6365105476528281</v>
       </c>
     </row>
     <row r="15">
@@ -4390,19 +4390,19 @@
         <v>431508</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>395856</v>
+        <v>390973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>474612</v>
+        <v>473300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1278329839507647</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1172712495278162</v>
+        <v>0.1158247178928393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1406025816737643</v>
+        <v>0.1402137657434346</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1019</v>
@@ -4411,19 +4411,19 @@
         <v>1117525</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1061101</v>
+        <v>1061132</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1176008</v>
+        <v>1174408</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3169769929695435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3009727095431836</v>
+        <v>0.3009815531821046</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3335652498902246</v>
+        <v>0.3331112955297329</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1418</v>
@@ -4432,19 +4432,19 @@
         <v>1549033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1478637</v>
+        <v>1474187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1619072</v>
+        <v>1624179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2244607370179164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2142600330552613</v>
+        <v>0.2136152114561165</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2346096648413496</v>
+        <v>0.2353496706764388</v>
       </c>
     </row>
     <row r="17">
@@ -4461,19 +4461,19 @@
         <v>947501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>892421</v>
+        <v>897400</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>999438</v>
+        <v>1005868</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2806946075654178</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2643771415508847</v>
+        <v>0.2658523253063274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2960807920806303</v>
+        <v>0.2979855333073776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1201</v>
@@ -4482,19 +4482,19 @@
         <v>1256957</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1202654</v>
+        <v>1198432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1320128</v>
+        <v>1315609</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3565257774859147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.341123170378783</v>
+        <v>0.3399254677564539</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.374443642591258</v>
+        <v>0.3731618138401002</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2126</v>
@@ -4503,19 +4503,19 @@
         <v>2204459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2132334</v>
+        <v>2127882</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2288543</v>
+        <v>2282602</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3194343783881008</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3089832039490916</v>
+        <v>0.3083381824524468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3316184901586539</v>
+        <v>0.330757678946719</v>
       </c>
     </row>
     <row r="18">
@@ -4532,19 +4532,19 @@
         <v>1996551</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1937817</v>
+        <v>1936245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2050155</v>
+        <v>2056722</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5914724084838175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5740727846374624</v>
+        <v>0.5736069535522628</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6073526106830249</v>
+        <v>0.6092980127681513</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1100</v>
@@ -4553,19 +4553,19 @@
         <v>1151089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1094769</v>
+        <v>1091895</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1205633</v>
+        <v>1205340</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3264972295445418</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3105223571795619</v>
+        <v>0.3097071870031836</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3419679404043565</v>
+        <v>0.341884944009024</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2989</v>
@@ -4574,19 +4574,19 @@
         <v>3147640</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3064926</v>
+        <v>3055431</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3243526</v>
+        <v>3227119</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4561048845939827</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4441192814532504</v>
+        <v>0.4427434219723333</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4699990702655795</v>
+        <v>0.4676216923649565</v>
       </c>
     </row>
     <row r="19">
@@ -4917,19 +4917,19 @@
         <v>111875</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>91982</v>
+        <v>92945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133327</v>
+        <v>132447</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1941444270361439</v>
+        <v>0.194144427036144</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1596216531891473</v>
+        <v>0.1612927156475746</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2313713288208485</v>
+        <v>0.2298431450030342</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>656</v>
@@ -4938,19 +4938,19 @@
         <v>361015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>337070</v>
+        <v>340119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>384251</v>
+        <v>383345</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4406436879851258</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.411418235840625</v>
+        <v>0.4151396179468983</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4690051911822098</v>
+        <v>0.4678990227101484</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>775</v>
@@ -4959,19 +4959,19 @@
         <v>472890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>443330</v>
+        <v>442543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>503393</v>
+        <v>504539</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3388587069833556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3176768653393804</v>
+        <v>0.3171130043075171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3607164948511088</v>
+        <v>0.3615374125535897</v>
       </c>
     </row>
     <row r="5">
@@ -4988,19 +4988,19 @@
         <v>175402</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>157886</v>
+        <v>155226</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>199528</v>
+        <v>196237</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3043864897453054</v>
+        <v>0.3043864897453055</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2739897357912812</v>
+        <v>0.2693732582087532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3462538320098197</v>
+        <v>0.3405434509879876</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>560</v>
@@ -5009,19 +5009,19 @@
         <v>330507</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307423</v>
+        <v>310772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>350780</v>
+        <v>353361</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4034068799767855</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3752319981087209</v>
+        <v>0.3793195032326707</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4281511942691698</v>
+        <v>0.4313017868868262</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>785</v>
@@ -5030,19 +5030,19 @@
         <v>505909</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>473560</v>
+        <v>476348</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>536259</v>
+        <v>534718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3625191771102642</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3393386558577686</v>
+        <v>0.341336893803065</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3842671174897087</v>
+        <v>0.3831626293482118</v>
       </c>
     </row>
     <row r="6">
@@ -5059,19 +5059,19 @@
         <v>288971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>265843</v>
+        <v>264384</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>310440</v>
+        <v>310957</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5014690832185507</v>
+        <v>0.5014690832185508</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4613335390575638</v>
+        <v>0.4588024423567864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5387259511312794</v>
+        <v>0.5396240422836267</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>207</v>
@@ -5080,19 +5080,19 @@
         <v>127768</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111709</v>
+        <v>111115</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145879</v>
+        <v>144409</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1559494320380888</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1363482448862015</v>
+        <v>0.1356242959244318</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1780553590078832</v>
+        <v>0.1762616410082816</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>552</v>
@@ -5101,19 +5101,19 @@
         <v>416738</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>385015</v>
+        <v>384816</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>447030</v>
+        <v>446821</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2986221159063802</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.275890270248805</v>
+        <v>0.2757473766848</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3203281496768458</v>
+        <v>0.3201782833278065</v>
       </c>
     </row>
     <row r="7">
@@ -5205,19 +5205,19 @@
         <v>390781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353447</v>
+        <v>350636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440025</v>
+        <v>431240</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1755156609107405</v>
+        <v>0.1755156609107406</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1587475961800523</v>
+        <v>0.1574847937405063</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1976330817545177</v>
+        <v>0.1936875115995868</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>898</v>
@@ -5226,19 +5226,19 @@
         <v>633625</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>594552</v>
+        <v>594104</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>677419</v>
+        <v>679063</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2922923760861592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.274267725786955</v>
+        <v>0.2740613942137606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3124947602683836</v>
+        <v>0.3132528581443119</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1258</v>
@@ -5247,19 +5247,19 @@
         <v>1024406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>964767</v>
+        <v>966373</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1080520</v>
+        <v>1082328</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2331241109915947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2195520677054358</v>
+        <v>0.2199175470697523</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2458941233343638</v>
+        <v>0.246305563794301</v>
       </c>
     </row>
     <row r="9">
@@ -5276,19 +5276,19 @@
         <v>567043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>520976</v>
+        <v>519079</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>614625</v>
+        <v>617077</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2546822656419698</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2339916297644295</v>
+        <v>0.2331396667662079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2760534171267891</v>
+        <v>0.277154656481632</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>978</v>
@@ -5297,19 +5297,19 @@
         <v>720837</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>679791</v>
+        <v>677464</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>759516</v>
+        <v>761849</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3325236000113548</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3135890180444602</v>
+        <v>0.3125153072220548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3503660153442616</v>
+        <v>0.3514421286809174</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1493</v>
@@ -5318,19 +5318,19 @@
         <v>1287881</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1229095</v>
+        <v>1225504</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1351785</v>
+        <v>1348143</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2930830599998995</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.279705322113035</v>
+        <v>0.2788879534356326</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3076257165487288</v>
+        <v>0.306796976888957</v>
       </c>
     </row>
     <row r="10">
@@ -5347,19 +5347,19 @@
         <v>1268649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1212304</v>
+        <v>1215551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1325115</v>
+        <v>1323644</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5698020734472895</v>
+        <v>0.5698020734472896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5444953519593837</v>
+        <v>0.5459534370600398</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5951632975490855</v>
+        <v>0.5945026973240259</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1040</v>
@@ -5368,19 +5368,19 @@
         <v>813316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>771463</v>
+        <v>767426</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>856371</v>
+        <v>855838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.375184023902486</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.35587736804556</v>
+        <v>0.3540149005316336</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3950454743698859</v>
+        <v>0.394799850477457</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2153</v>
@@ -5389,19 +5389,19 @@
         <v>2081965</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2009249</v>
+        <v>2011914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2149083</v>
+        <v>2146979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4737928290085057</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4572450187644387</v>
+        <v>0.4578514333199776</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.489067028704866</v>
+        <v>0.4885881546581837</v>
       </c>
     </row>
     <row r="11">
@@ -5493,19 +5493,19 @@
         <v>116602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95470</v>
+        <v>97798</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138431</v>
+        <v>138498</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1638620178677208</v>
+        <v>0.1638620178677207</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1341649727501241</v>
+        <v>0.1374359253009474</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1945379863997239</v>
+        <v>0.1946321637427853</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>284</v>
@@ -5514,19 +5514,19 @@
         <v>188199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>169087</v>
+        <v>166387</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>208089</v>
+        <v>208382</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2567983118828006</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2307198083579633</v>
+        <v>0.2270351013686999</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2839373531948163</v>
+        <v>0.284337230998244</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>408</v>
@@ -5535,19 +5535,19 @@
         <v>304801</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>276252</v>
+        <v>274936</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>334097</v>
+        <v>335005</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2110147714662619</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1912501468730647</v>
+        <v>0.1903386410516529</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2312960540566741</v>
+        <v>0.2319246177363329</v>
       </c>
     </row>
     <row r="13">
@@ -5564,19 +5564,19 @@
         <v>150975</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129343</v>
+        <v>129307</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>174607</v>
+        <v>175971</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2121664056345584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1817665545928853</v>
+        <v>0.1817160454791922</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2453767057504493</v>
+        <v>0.2472934522117384</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>244</v>
@@ -5585,19 +5585,19 @@
         <v>182177</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161406</v>
+        <v>161815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>203712</v>
+        <v>204242</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.248580762630056</v>
+        <v>0.2485807626300561</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2202387554773361</v>
+        <v>0.2207974460562461</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2779660793858577</v>
+        <v>0.2786888173274786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>386</v>
@@ -5606,19 +5606,19 @@
         <v>333152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>300851</v>
+        <v>302433</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>364370</v>
+        <v>367902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2306418271160671</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2082802451636337</v>
+        <v>0.2093750845068768</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.252254040129926</v>
+        <v>0.2546995859845084</v>
       </c>
     </row>
     <row r="14">
@@ -5635,19 +5635,19 @@
         <v>444010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>415578</v>
+        <v>416264</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>470317</v>
+        <v>471008</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6239715764977208</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5840152859869837</v>
+        <v>0.5849802361989195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6609408232465985</v>
+        <v>0.6619125374419803</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>474</v>
@@ -5656,19 +5656,19 @@
         <v>362492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>337496</v>
+        <v>340642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388063</v>
+        <v>386276</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4946209254871433</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4605140611798058</v>
+        <v>0.4648064866098985</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5295125384273788</v>
+        <v>0.5270750749287195</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>889</v>
@@ -5677,19 +5677,19 @@
         <v>806502</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>769530</v>
+        <v>772336</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>843588</v>
+        <v>844860</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5583434014176709</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5327474828988965</v>
+        <v>0.5346903369013479</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5840179403109426</v>
+        <v>0.5848991211822718</v>
       </c>
     </row>
     <row r="15">
@@ -5781,19 +5781,19 @@
         <v>619258</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>572068</v>
+        <v>569192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>670839</v>
+        <v>674553</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1762105933734874</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.16278250945689</v>
+        <v>0.1619642024362815</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1908878211268125</v>
+        <v>0.1919448818601743</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1838</v>
@@ -5802,19 +5802,19 @@
         <v>1182839</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1131831</v>
+        <v>1132225</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1232595</v>
+        <v>1227884</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3179729663723499</v>
+        <v>0.31797296637235</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3042609066655588</v>
+        <v>0.3043668710648164</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3313486619955093</v>
+        <v>0.3300822358035758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2441</v>
@@ -5823,19 +5823,19 @@
         <v>1802097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1735032</v>
+        <v>1729968</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1876835</v>
+        <v>1875804</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2491065130837403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2398360009138058</v>
+        <v>0.2391360179106372</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2594376037760449</v>
+        <v>0.259295185643758</v>
       </c>
     </row>
     <row r="17">
@@ -5852,19 +5852,19 @@
         <v>893420</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>841261</v>
+        <v>837559</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>955197</v>
+        <v>949584</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2542236325039069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2393815628553188</v>
+        <v>0.2383282804668962</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2718023745843755</v>
+        <v>0.2702050101377217</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1782</v>
@@ -5873,19 +5873,19 @@
         <v>1233521</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1182599</v>
+        <v>1188130</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1281018</v>
+        <v>1285607</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3315974740668938</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3179085526132291</v>
+        <v>0.3193953203695</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.344365773749754</v>
+        <v>0.345599323555573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2664</v>
@@ -5894,19 +5894,19 @@
         <v>2126941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2053283</v>
+        <v>2049492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2204357</v>
+        <v>2205939</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2940101937961236</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2838283208201562</v>
+        <v>0.2833042419475499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3047115012243568</v>
+        <v>0.3049302451081002</v>
       </c>
     </row>
     <row r="18">
@@ -5923,19 +5923,19 @@
         <v>2001630</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1936626</v>
+        <v>1935041</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2068811</v>
+        <v>2066671</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5695657741226058</v>
+        <v>0.5695657741226057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5510690594103579</v>
+        <v>0.550617790632682</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5886822496216405</v>
+        <v>0.5880732630971653</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1721</v>
@@ -5944,19 +5944,19 @@
         <v>1303575</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1246419</v>
+        <v>1252550</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1355668</v>
+        <v>1358510</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3504295595607562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3350646387998834</v>
+        <v>0.3367127789687997</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3644331853569188</v>
+        <v>0.3651971863788541</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3594</v>
@@ -5965,19 +5965,19 @@
         <v>3305205</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3217353</v>
+        <v>3218734</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>3384492</v>
+        <v>3402166</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.456883293120136</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4447393574088985</v>
+        <v>0.4449302688296236</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4678433523357361</v>
+        <v>0.4702864123233781</v>
       </c>
     </row>
     <row r="19">
